--- a/Rapport/Resultats/Libro1.xlsx
+++ b/Rapport/Resultats/Libro1.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TDSI\ProjetE-ComptagePersonnes\Rapport\Resultats\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
   </bookViews>
@@ -18,36 +23,30 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
-    <t>Seuil/Taille</t>
-  </si>
-  <si>
     <t>DISK - TR %</t>
-  </si>
-  <si>
-    <t>DISK - temps</t>
   </si>
   <si>
     <t>SQUARE - TR %</t>
   </si>
   <si>
-    <t>SQUARE - temps</t>
+    <t>DISK - FPS</t>
+  </si>
+  <si>
+    <t>SQUARE - FPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            Taille
+Seuil</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -59,19 +58,13 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="20">
     <border>
@@ -97,21 +90,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -341,14 +319,32 @@
         <color indexed="64"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="medium">
+        <color indexed="64"/>
+      </diagonal>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -359,43 +355,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -437,7 +459,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -469,9 +491,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -503,6 +526,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -678,322 +702,322 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:P18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I2" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:16" ht="15.75" thickBot="1"/>
-    <row r="4" spans="2:16" ht="15.75" thickBot="1">
-      <c r="B4" s="17" t="s">
+    <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="18"/>
+      <c r="J4" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="19"/>
-      <c r="J4" s="17" t="s">
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="18"/>
+    </row>
+    <row r="5" spans="2:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="20">
+        <v>2</v>
+      </c>
+      <c r="D5" s="21">
         <v>3</v>
       </c>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="18"/>
-      <c r="P4" s="19"/>
-    </row>
-    <row r="5" spans="2:16" ht="15.75" thickBot="1">
-      <c r="B5" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="14">
+      <c r="E5" s="21">
+        <v>4</v>
+      </c>
+      <c r="F5" s="21">
+        <v>5</v>
+      </c>
+      <c r="G5" s="21">
+        <v>6</v>
+      </c>
+      <c r="H5" s="22">
+        <v>7</v>
+      </c>
+      <c r="J5" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" s="13">
         <v>2</v>
       </c>
-      <c r="D5" s="26">
+      <c r="L5" s="14">
         <v>3</v>
       </c>
-      <c r="E5" s="15">
+      <c r="M5" s="14">
         <v>4</v>
       </c>
-      <c r="F5" s="15">
+      <c r="N5" s="14">
         <v>5</v>
       </c>
-      <c r="G5" s="15">
+      <c r="O5" s="14">
         <v>6</v>
       </c>
-      <c r="H5" s="16">
+      <c r="P5" s="15">
         <v>7</v>
       </c>
-      <c r="J5" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="K5" s="14">
-        <v>2</v>
-      </c>
-      <c r="L5" s="15">
-        <v>3</v>
-      </c>
-      <c r="M5" s="15">
-        <v>4</v>
-      </c>
-      <c r="N5" s="15">
-        <v>5</v>
-      </c>
-      <c r="O5" s="15">
-        <v>6</v>
-      </c>
-      <c r="P5" s="16">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16">
-      <c r="B6" s="9">
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="23">
         <v>0.1</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="24">
         <v>60</v>
       </c>
-      <c r="D6" s="27">
+      <c r="D6" s="25">
         <v>80</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="25">
         <v>80</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="26">
         <v>70</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="26">
         <v>70</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="27">
         <v>40</v>
       </c>
       <c r="J6" s="9">
         <v>0.1</v>
       </c>
-      <c r="K6" s="10"/>
-      <c r="L6" s="23">
+      <c r="K6" s="24"/>
+      <c r="L6" s="26">
         <v>60</v>
       </c>
-      <c r="M6" s="23">
+      <c r="M6" s="26">
         <v>60</v>
       </c>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="12"/>
-    </row>
-    <row r="7" spans="2:16">
-      <c r="B7" s="7">
+      <c r="N6" s="26"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="27"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="28">
         <v>0.125</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="29">
         <v>50</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="30">
         <v>80</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="31">
         <v>60</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="31">
         <v>60</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="31">
         <v>60</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="32">
         <v>30</v>
       </c>
       <c r="J7" s="7">
         <v>0.125</v>
       </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="24">
+      <c r="K7" s="29"/>
+      <c r="L7" s="31">
         <v>50</v>
       </c>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="2"/>
-    </row>
-    <row r="8" spans="2:16">
-      <c r="B8" s="7">
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="32"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="28">
         <v>0.15</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="29">
         <v>60</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="30">
         <v>90</v>
       </c>
-      <c r="E8" s="22">
+      <c r="E8" s="30">
         <v>70</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="30">
         <v>90</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="31">
         <v>60</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="32">
         <v>30</v>
       </c>
       <c r="J8" s="7">
         <v>0.15</v>
       </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="24">
+      <c r="K8" s="29"/>
+      <c r="L8" s="31">
         <v>20</v>
       </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="24">
+      <c r="M8" s="31"/>
+      <c r="N8" s="31">
         <v>90</v>
       </c>
-      <c r="O8" s="1"/>
-      <c r="P8" s="2"/>
-    </row>
-    <row r="9" spans="2:16">
-      <c r="B9" s="29">
+      <c r="O8" s="31"/>
+      <c r="P8" s="32"/>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="28">
         <v>0.17499999999999999</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C9" s="29">
         <v>60</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="30">
         <v>80</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="30">
         <v>90</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="30">
         <v>80</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="31">
         <v>50</v>
       </c>
-      <c r="H9" s="31">
+      <c r="H9" s="32">
         <v>20</v>
       </c>
       <c r="J9" s="7">
         <v>0.17499999999999999</v>
       </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="24">
+      <c r="K9" s="29"/>
+      <c r="L9" s="31">
         <v>50</v>
       </c>
-      <c r="M9" s="24">
+      <c r="M9" s="31">
         <v>50</v>
       </c>
-      <c r="N9" s="24">
+      <c r="N9" s="31">
         <v>80</v>
       </c>
-      <c r="O9" s="1"/>
-      <c r="P9" s="2"/>
-    </row>
-    <row r="10" spans="2:16" ht="15.75" thickBot="1">
-      <c r="B10" s="8">
+      <c r="O9" s="31"/>
+      <c r="P9" s="32"/>
+    </row>
+    <row r="10" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="33">
         <v>0.2</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="34">
         <v>60</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="35">
         <v>50</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="35">
         <v>60</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="35">
         <v>80</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="35">
         <v>30</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="36">
         <v>10</v>
       </c>
       <c r="J10" s="8">
         <v>0.2</v>
       </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="4"/>
-    </row>
-    <row r="11" spans="2:16" ht="15.75" thickBot="1"/>
-    <row r="12" spans="2:16" ht="15.75" thickBot="1">
-      <c r="B12" s="17" t="s">
+      <c r="K10" s="34"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="36"/>
+    </row>
+    <row r="11" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="19"/>
-      <c r="J12" s="17" t="s">
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="18"/>
+      <c r="J12" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="18"/>
+    </row>
+    <row r="13" spans="2:16" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="19"/>
-    </row>
-    <row r="13" spans="2:16" ht="15.75" thickBot="1">
-      <c r="B13" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="14">
+      <c r="C13" s="13">
         <v>2</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="14">
         <v>3</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="14">
         <v>4</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="14">
         <v>5</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="14">
         <v>6</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="15">
         <v>7</v>
       </c>
-      <c r="J13" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="K13" s="14">
+      <c r="J13" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="K13" s="13">
         <v>2</v>
       </c>
-      <c r="L13" s="15">
+      <c r="L13" s="14">
         <v>3</v>
       </c>
-      <c r="M13" s="15">
+      <c r="M13" s="14">
         <v>4</v>
       </c>
-      <c r="N13" s="15">
+      <c r="N13" s="14">
         <v>5</v>
       </c>
-      <c r="O13" s="15">
+      <c r="O13" s="14">
         <v>6</v>
       </c>
-      <c r="P13" s="16">
+      <c r="P13" s="15">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:16">
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="9">
         <v>0.1</v>
       </c>
@@ -1018,18 +1042,18 @@
       <c r="J14" s="9">
         <v>0.1</v>
       </c>
-      <c r="K14" s="10"/>
-      <c r="L14" s="23">
+      <c r="K14" s="24"/>
+      <c r="L14" s="26">
         <v>13.7401</v>
       </c>
-      <c r="M14" s="23">
+      <c r="M14" s="26">
         <v>15.314500000000001</v>
       </c>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="12"/>
-    </row>
-    <row r="15" spans="2:16">
+      <c r="N14" s="26"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="27"/>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B15" s="7">
         <v>0.125</v>
       </c>
@@ -1054,16 +1078,16 @@
       <c r="J15" s="7">
         <v>0.125</v>
       </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="24">
+      <c r="K15" s="29"/>
+      <c r="L15" s="31">
         <v>15.4556</v>
       </c>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="2"/>
-    </row>
-    <row r="16" spans="2:16">
+      <c r="M15" s="31"/>
+      <c r="N15" s="31"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="32"/>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="7">
         <v>0.15</v>
       </c>
@@ -1088,18 +1112,18 @@
       <c r="J16" s="7">
         <v>0.15</v>
       </c>
-      <c r="K16" s="5"/>
-      <c r="L16" s="24">
+      <c r="K16" s="29"/>
+      <c r="L16" s="31">
         <v>14.8027</v>
       </c>
-      <c r="M16" s="1"/>
-      <c r="N16" s="24">
+      <c r="M16" s="31"/>
+      <c r="N16" s="31">
         <v>15.8811</v>
       </c>
-      <c r="O16" s="1"/>
-      <c r="P16" s="2"/>
-    </row>
-    <row r="17" spans="2:16">
+      <c r="O16" s="31"/>
+      <c r="P16" s="32"/>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" s="7">
         <v>0.17499999999999999</v>
       </c>
@@ -1124,20 +1148,20 @@
       <c r="J17" s="7">
         <v>0.17499999999999999</v>
       </c>
-      <c r="K17" s="5"/>
-      <c r="L17" s="24">
+      <c r="K17" s="29"/>
+      <c r="L17" s="31">
         <v>15.4991</v>
       </c>
-      <c r="M17" s="24">
+      <c r="M17" s="31">
         <v>14.9023</v>
       </c>
-      <c r="N17" s="24">
+      <c r="N17" s="31">
         <v>16.008600000000001</v>
       </c>
-      <c r="O17" s="1"/>
-      <c r="P17" s="2"/>
-    </row>
-    <row r="18" spans="2:16" ht="15.75" thickBot="1">
+      <c r="O17" s="31"/>
+      <c r="P17" s="32"/>
+    </row>
+    <row r="18" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="8">
         <v>0.2</v>
       </c>
@@ -1162,12 +1186,12 @@
       <c r="J18" s="8">
         <v>0.2</v>
       </c>
-      <c r="K18" s="6"/>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="4"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1177,29 +1201,29 @@
     <mergeCell ref="J12:P12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
